--- a/medicine/Mort/Cimetière_de_Beaumont-sur-Oise/Cimetière_de_Beaumont-sur-Oise.xlsx
+++ b/medicine/Mort/Cimetière_de_Beaumont-sur-Oise/Cimetière_de_Beaumont-sur-Oise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Beaumont-sur-Oise</t>
+          <t>Cimetière_de_Beaumont-sur-Oise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Beaumont-sur-Oise est le cimetière municipal de la commune de Beaumont-sur-Oise dans le Val-d'Oise à 32 km au nord de Paris. Il donne boulevard Léon-Blum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Beaumont-sur-Oise</t>
+          <t>Cimetière_de_Beaumont-sur-Oise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est fondé en 1832, l'année de l'épidémie de choléra qui oblige les municipalités à excentrer les cimetières et donc à fermer le cimetière paroissial près de l'église de Beaumont[1],[2]. Le cimetière possède encore de jolies tombes anciennes et quelques chapelles familiales. Ses allées principales sont plantées de cerisiers du Japon, ce qui lui donne un aspect romantique à la floraison du printemps. Il existe un carré militaire de trente-trois sépultures sur une pelouse[3] et un jardin du souvenir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est fondé en 1832, l'année de l'épidémie de choléra qui oblige les municipalités à excentrer les cimetières et donc à fermer le cimetière paroissial près de l'église de Beaumont,. Le cimetière possède encore de jolies tombes anciennes et quelques chapelles familiales. Ses allées principales sont plantées de cerisiers du Japon, ce qui lui donne un aspect romantique à la floraison du printemps. Il existe un carré militaire de trente-trois sépultures sur une pelouse et un jardin du souvenir.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Beaumont-sur-Oise</t>
+          <t>Cimetière_de_Beaumont-sur-Oise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>André Berthier (1907-2000), archéologue
 Jules de Lesseps (1809-1887), diplomate et frère de Ferdinand de Lesseps (chapelle et buste)
